--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_377__Reeval_Taguchi_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_999/metrics/Trial_377__Reeval_Taguchi_Modell_1.3.xlsx
@@ -5417,7 +5417,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>89.10165405273438</c:v>
+                  <c:v>89.10166931152344</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>93.99122619628906</c:v>
@@ -5429,7 +5429,7 @@
                   <c:v>54.63520431518555</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>33.67631149291992</c:v>
+                  <c:v>33.67630767822266</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>52.56317520141602</c:v>
@@ -5456,19 +5456,19 @@
                   <c:v>90.65242004394531</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>78.15850830078125</c:v>
+                  <c:v>78.15849304199219</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>40.54952239990234</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>73.08185577392578</c:v>
+                  <c:v>73.08184814453125</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>68.23216247558594</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25.72840118408203</c:v>
+                  <c:v>25.7284049987793</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>98.51473999023438</c:v>
@@ -5480,13 +5480,13 @@
                   <c:v>54.22563171386719</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>63.41422653198242</c:v>
+                  <c:v>63.41423034667969</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>54.45005798339844</c:v>
+                  <c:v>54.45005416870117</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>90.78411865234375</c:v>
+                  <c:v>90.78410339355469</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>96.91685485839844</c:v>
@@ -5498,7 +5498,7 @@
                   <c:v>89.12391662597656</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>97.47296142578125</c:v>
+                  <c:v>97.47294616699219</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>68.50392913818359</c:v>
@@ -5507,7 +5507,7 @@
                   <c:v>97.47929382324219</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>53.7977180480957</c:v>
+                  <c:v>53.79772186279297</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>79.75312805175781</c:v>
@@ -5534,13 +5534,13 @@
                   <c:v>58.47542572021484</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>94.367919921875</c:v>
+                  <c:v>94.36790466308594</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>37.67527008056641</c:v>
+                  <c:v>37.67527770996094</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>86.92475891113281</c:v>
+                  <c:v>86.92477416992188</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>86.74884033203125</c:v>
@@ -5549,7 +5549,7 @@
                   <c:v>78.10601806640625</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>91.01760864257812</c:v>
+                  <c:v>91.01762390136719</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>96.50865173339844</c:v>
@@ -5585,16 +5585,16 @@
                   <c:v>95.04765319824219</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>77.37297058105469</c:v>
+                  <c:v>77.37295532226562</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>51.4400749206543</c:v>
+                  <c:v>51.44007110595703</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>97.81245422363281</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>46.84125137329102</c:v>
+                  <c:v>46.84124755859375</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>86.70939636230469</c:v>
@@ -5636,13 +5636,13 @@
                   <c:v>97.18112182617188</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>97.37869262695312</c:v>
+                  <c:v>97.37870788574219</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>29.2398738861084</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>61.63046264648438</c:v>
+                  <c:v>61.63045501708984</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>85.66581726074219</c:v>
@@ -5663,7 +5663,7 @@
                   <c:v>97.48103332519531</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>97.90214538574219</c:v>
+                  <c:v>97.90213012695312</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>86.29660034179688</c:v>
@@ -6379,7 +6379,7 @@
         <v>88.3473</v>
       </c>
       <c r="F2">
-        <v>89.10165405273438</v>
+        <v>89.10166931152344</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6507,7 +6507,7 @@
         <v>19.1716</v>
       </c>
       <c r="F6">
-        <v>33.67631149291992</v>
+        <v>33.67630767822266</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -6711,7 +6711,7 @@
         <v>79.27419999999999</v>
       </c>
       <c r="F15">
-        <v>78.15850830078125</v>
+        <v>78.15849304199219</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6751,7 +6751,7 @@
         <v>73.52419999999999</v>
       </c>
       <c r="F17">
-        <v>73.08185577392578</v>
+        <v>73.08184814453125</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6791,7 +6791,7 @@
         <v>12.1498</v>
       </c>
       <c r="F19">
-        <v>25.72840118408203</v>
+        <v>25.7284049987793</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>63.2102</v>
       </c>
       <c r="F23">
-        <v>63.41422653198242</v>
+        <v>63.41423034667969</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>52.4045</v>
       </c>
       <c r="F24">
-        <v>54.45005798339844</v>
+        <v>54.45005416870117</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>89.67829999999999</v>
       </c>
       <c r="F25">
-        <v>90.78411865234375</v>
+        <v>90.78410339355469</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>97.328</v>
       </c>
       <c r="F29">
-        <v>97.47296142578125</v>
+        <v>97.47294616699219</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>53.6367</v>
       </c>
       <c r="F32">
-        <v>53.7977180480957</v>
+        <v>53.79772186279297</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>93.9979</v>
       </c>
       <c r="F41">
-        <v>94.367919921875</v>
+        <v>94.36790466308594</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7251,7 +7251,7 @@
         <v>38.6711</v>
       </c>
       <c r="F42">
-        <v>37.67527008056641</v>
+        <v>37.67527770996094</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>86.58159999999999</v>
       </c>
       <c r="F43">
-        <v>86.92475891113281</v>
+        <v>86.92477416992188</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>90.6163</v>
       </c>
       <c r="F46">
-        <v>91.01760864257812</v>
+        <v>91.01762390136719</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>79.8115</v>
       </c>
       <c r="F58">
-        <v>77.37297058105469</v>
+        <v>77.37295532226562</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>51.2359</v>
       </c>
       <c r="F59">
-        <v>51.4400749206543</v>
+        <v>51.44007110595703</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>46.5133</v>
       </c>
       <c r="F61">
-        <v>46.84125137329102</v>
+        <v>46.84124755859375</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>97.50060000000001</v>
       </c>
       <c r="F75">
-        <v>97.37869262695312</v>
+        <v>97.37870788574219</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>64.7646</v>
       </c>
       <c r="F77">
-        <v>61.63046264648438</v>
+        <v>61.63045501708984</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>97.5826</v>
       </c>
       <c r="F84">
-        <v>97.90214538574219</v>
+        <v>97.90213012695312</v>
       </c>
     </row>
     <row r="85" spans="1:6">
